--- a/documents/stime.xlsx
+++ b/documents/stime.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User1\Desktop\pandas\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D1D3FA-7F35-480E-BE80-10AA0287AB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0FCDF7-C254-4387-90BB-5C4D1258CF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7B9313BB-1328-4619-90D2-0688F9CF75EA}"/>
   </bookViews>
@@ -515,7 +515,7 @@
   <dimension ref="B8:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,31 +742,31 @@
         <v>28.4</v>
       </c>
       <c r="H16" s="1">
-        <f>ROUND(((H15+86)*8)/54,1)</f>
+        <f t="shared" ref="H16:M16" si="3">ROUND(((H15+86)*8)/54,1)</f>
         <v>57.2</v>
       </c>
       <c r="I16" s="1">
-        <f>ROUND(((I15+86)*8)/54,1)</f>
+        <f t="shared" si="3"/>
         <v>86.8</v>
       </c>
       <c r="J16" s="1">
-        <f>ROUND(((J15+86)*8)/54,1)</f>
+        <f t="shared" si="3"/>
         <v>116.4</v>
       </c>
       <c r="K16" s="1">
-        <f>ROUND(((K15+86)*8)/54,1)</f>
+        <f t="shared" si="3"/>
         <v>160.9</v>
       </c>
       <c r="L16" s="1">
-        <f>ROUND(((L15+86)*8)/54,1)</f>
+        <f t="shared" si="3"/>
         <v>235</v>
       </c>
       <c r="M16" s="1">
-        <f>ROUND(((M15+86)*8)/54,1)</f>
+        <f t="shared" si="3"/>
         <v>309</v>
       </c>
       <c r="Q16">
-        <f t="shared" ref="Q16:Q36" si="3">R16-R15</f>
+        <f t="shared" ref="Q16:Q36" si="4">R16-R15</f>
         <v>832</v>
       </c>
       <c r="R16">
@@ -776,7 +776,7 @@
         <v>4100</v>
       </c>
       <c r="T16">
-        <f t="shared" ref="T16:T36" si="4">S16-S15</f>
+        <f t="shared" ref="T16:T36" si="5">S16-S15</f>
         <v>800</v>
       </c>
     </row>
@@ -792,31 +792,31 @@
         <v>78.400000000000006</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" ref="H17:M17" si="5">H16+50</f>
+        <f t="shared" ref="H17:M17" si="6">H16+50</f>
         <v>107.2</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>136.80000000000001</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>166.4</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210.9</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>285</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>359</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1072</v>
       </c>
       <c r="R17">
@@ -826,7 +826,7 @@
         <v>4700</v>
       </c>
       <c r="T17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>600</v>
       </c>
     </row>
@@ -835,35 +835,35 @@
         <v>6</v>
       </c>
       <c r="G18" s="1">
-        <f>ROUND((G15*8)/(G17+$B17/4),1)</f>
+        <f t="shared" ref="G18:L18" si="7">ROUND((G15*8)/(G17+$B17/4),1)</f>
         <v>6.2</v>
       </c>
       <c r="H18" s="1">
-        <f>ROUND((H15*8)/(H17+$B17/4),1)</f>
+        <f t="shared" si="7"/>
         <v>15.3</v>
       </c>
       <c r="I18" s="1">
-        <f>ROUND((I15*8)/(I17+$B17/4),1)</f>
+        <f t="shared" si="7"/>
         <v>21.4</v>
       </c>
       <c r="J18" s="1">
-        <f>ROUND((J15*8)/(J17+$B17/4),1)</f>
+        <f t="shared" si="7"/>
         <v>25.9</v>
       </c>
       <c r="K18" s="1">
-        <f>ROUND((K15*8)/(K17+$B17/4),1)</f>
+        <f t="shared" si="7"/>
         <v>30.7</v>
       </c>
       <c r="L18" s="1">
-        <f>ROUND((L15*8)/(L17+$B17/4),1)</f>
+        <f t="shared" si="7"/>
         <v>35.799999999999997</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" ref="M18" si="6">ROUND((M15*8)/(M17+$B17/4),1)</f>
+        <f t="shared" ref="M18" si="8">ROUND((M15*8)/(M17+$B17/4),1)</f>
         <v>39.1</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>452</v>
       </c>
       <c r="R18">
@@ -873,7 +873,7 @@
         <v>5220</v>
       </c>
       <c r="T18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>520</v>
       </c>
     </row>
@@ -882,35 +882,35 @@
         <v>7</v>
       </c>
       <c r="G19" s="1">
-        <f>ROUND((G15*8)/(G17+$B17/16),1)</f>
+        <f t="shared" ref="G19:M19" si="9">ROUND((G15*8)/(G17+$B17/16),1)</f>
         <v>8.8000000000000007</v>
       </c>
       <c r="H19" s="1">
-        <f>ROUND((H15*8)/(H17+$B17/16),1)</f>
+        <f t="shared" si="9"/>
         <v>20.100000000000001</v>
       </c>
       <c r="I19" s="1">
-        <f>ROUND((I15*8)/(I17+$B17/16),1)</f>
+        <f t="shared" si="9"/>
         <v>26.8</v>
       </c>
       <c r="J19" s="1">
-        <f>ROUND((J15*8)/(J17+$B17/16),1)</f>
+        <f t="shared" si="9"/>
         <v>31.3</v>
       </c>
       <c r="K19" s="1">
-        <f>ROUND((K15*8)/(K17+$B17/16),1)</f>
+        <f t="shared" si="9"/>
         <v>35.799999999999997</v>
       </c>
       <c r="L19" s="1">
-        <f>ROUND((L15*8)/(L17+$B17/16),1)</f>
+        <f t="shared" si="9"/>
         <v>40.299999999999997</v>
       </c>
       <c r="M19" s="1">
-        <f>ROUND((M15*8)/(M17+$B17/16),1)</f>
+        <f t="shared" si="9"/>
         <v>43.1</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>612</v>
       </c>
       <c r="R19">
@@ -920,7 +920,7 @@
         <v>5711</v>
       </c>
       <c r="T19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>491</v>
       </c>
     </row>
@@ -929,31 +929,31 @@
         <v>8</v>
       </c>
       <c r="G20" s="1">
-        <f>ROUND((G15*8)/(G17+$B17/32),1)</f>
+        <f t="shared" ref="G20:M20" si="10">ROUND((G15*8)/(G17+$B17/32),1)</f>
         <v>9.5</v>
       </c>
       <c r="H20" s="1">
-        <f>ROUND((H15*8)/(H17+$B17/32),1)</f>
+        <f t="shared" si="10"/>
         <v>21.2</v>
       </c>
       <c r="I20" s="1">
-        <f>ROUND((I15*8)/(I17+$B17/32),1)</f>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="J20" s="1">
-        <f>ROUND((J15*8)/(J17+$B17/32),1)</f>
+        <f t="shared" si="10"/>
         <v>32.4</v>
       </c>
       <c r="K20" s="1">
-        <f>ROUND((K15*8)/(K17+$B17/32),1)</f>
+        <f t="shared" si="10"/>
         <v>36.799999999999997</v>
       </c>
       <c r="L20" s="1">
-        <f>ROUND((L15*8)/(L17+$B17/32),1)</f>
+        <f t="shared" si="10"/>
         <v>41.2</v>
       </c>
       <c r="M20" s="1">
-        <f>ROUND((M15*8)/(M17+$B17/32),1)</f>
+        <f t="shared" si="10"/>
         <v>43.8</v>
       </c>
       <c r="Q20">
@@ -976,35 +976,35 @@
         <v>9</v>
       </c>
       <c r="G21" s="1">
-        <f>ROUND((G15*8)/(G17+$B17/64),1)</f>
+        <f t="shared" ref="G21:M21" si="11">ROUND((G15*8)/(G17+$B17/64),1)</f>
         <v>9.8000000000000007</v>
       </c>
       <c r="H21" s="1">
-        <f>ROUND((H15*8)/(H17+$B17/64),1)</f>
+        <f t="shared" si="11"/>
         <v>21.8</v>
       </c>
       <c r="I21" s="1">
-        <f>ROUND((I15*8)/(I17+$B17/64),1)</f>
+        <f t="shared" si="11"/>
         <v>28.6</v>
       </c>
       <c r="J21" s="1">
-        <f>ROUND((J15*8)/(J17+$B17/64),1)</f>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
       <c r="K21" s="1">
-        <f>ROUND((K15*8)/(K17+$B17/64),1)</f>
+        <f t="shared" si="11"/>
         <v>37.4</v>
       </c>
       <c r="L21" s="1">
-        <f>ROUND((L15*8)/(L17+$B17/64),1)</f>
+        <f t="shared" si="11"/>
         <v>41.6</v>
       </c>
       <c r="M21" s="1">
-        <f>ROUND((M15*8)/(M17+$B17/64),1)</f>
+        <f t="shared" si="11"/>
         <v>44.2</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="R21">
@@ -1014,13 +1014,13 @@
         <v>6915</v>
       </c>
       <c r="T21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>633</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>692</v>
       </c>
       <c r="R22">
@@ -1030,7 +1030,7 @@
         <v>7547</v>
       </c>
       <c r="T22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>632</v>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>732</v>
       </c>
       <c r="R24">
@@ -1062,13 +1062,13 @@
         <v>9211</v>
       </c>
       <c r="T24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>852</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>872</v>
       </c>
       <c r="R25">
@@ -1078,7 +1078,7 @@
         <v>9743</v>
       </c>
       <c r="T25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>532</v>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>772</v>
       </c>
       <c r="R27">
@@ -1110,13 +1110,13 @@
         <v>11127</v>
       </c>
       <c r="T27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>872</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>972</v>
       </c>
       <c r="R28">
@@ -1126,13 +1126,13 @@
         <v>11579</v>
       </c>
       <c r="T28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>452</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>992</v>
       </c>
       <c r="R29">
@@ -1142,13 +1142,13 @@
         <v>12351</v>
       </c>
       <c r="T29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>772</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>972</v>
       </c>
       <c r="R30">
@@ -1158,13 +1158,13 @@
         <v>12983</v>
       </c>
       <c r="T30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>632</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>452</v>
       </c>
       <c r="R31">
@@ -1174,13 +1174,13 @@
         <v>14055</v>
       </c>
       <c r="T31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1072</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>732</v>
       </c>
       <c r="R32">
@@ -1190,13 +1190,13 @@
         <v>14787</v>
       </c>
       <c r="T32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>732</v>
       </c>
     </row>
     <row r="33" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1032</v>
       </c>
       <c r="R33">
@@ -1206,13 +1206,13 @@
         <v>15759</v>
       </c>
       <c r="T33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>972</v>
       </c>
     </row>
     <row r="34" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1072</v>
       </c>
       <c r="R34">
@@ -1222,13 +1222,13 @@
         <v>16211</v>
       </c>
       <c r="T34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>452</v>
       </c>
     </row>
     <row r="35" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>512</v>
       </c>
       <c r="R35">
@@ -1238,13 +1238,13 @@
         <v>16825</v>
       </c>
       <c r="T35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>614</v>
       </c>
     </row>
     <row r="36" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>952</v>
       </c>
       <c r="R36">
@@ -1254,7 +1254,7 @@
         <v>17795</v>
       </c>
       <c r="T36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>970</v>
       </c>
     </row>
